--- a/data/coach.xlsx
+++ b/data/coach.xlsx
@@ -5,257 +5,468 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Đại học\học kì 6\ml\assignment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Đại học\học kì 6\ml\MachineLearningAssignment\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58FE66E5-8304-4F19-9721-84D931CAA80C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF542A0D-4936-4384-ADDB-1A821C205883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{9D80EBCC-0F24-446E-9CC8-90C307586FAE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="78">
-  <si>
-    <t>Pep Guardiola</t>
-  </si>
-  <si>
-    <t>Jürgen Klopp</t>
-  </si>
-  <si>
-    <t>Thomas Tuchel</t>
-  </si>
-  <si>
-    <t>Carlo Ancelotti</t>
-  </si>
-  <si>
-    <t>Diego Simeone</t>
-  </si>
-  <si>
-    <t>Zinedine Zidane</t>
-  </si>
-  <si>
-    <t>Antonio Conte</t>
-  </si>
-  <si>
-    <t>Massimiliano Allegri</t>
-  </si>
-  <si>
-    <t>Mauricio Pochettino</t>
-  </si>
-  <si>
-    <t>Julen Lopetegui</t>
-  </si>
-  <si>
-    <t>Simone Inzaghi</t>
-  </si>
-  <si>
-    <t>Hans-Dieter Flick</t>
-  </si>
-  <si>
-    <t>Erik ten Hag</t>
-  </si>
-  <si>
-    <t>Brendan Rodgers</t>
-  </si>
-  <si>
-    <t>Rudi Garcia</t>
-  </si>
-  <si>
-    <t>Marco Rose</t>
-  </si>
-  <si>
-    <t>Lucien Favre</t>
-  </si>
-  <si>
-    <t>Marcelo Bielsa</t>
-  </si>
-  <si>
-    <t>José Mourinho</t>
-  </si>
-  <si>
-    <t>Jesse Marsch</t>
-  </si>
-  <si>
-    <t>Julian Nagelsmann</t>
-  </si>
-  <si>
-    <t>Ralph Hasenhüttl</t>
-  </si>
-  <si>
-    <t>Andrea Pirlo</t>
-  </si>
-  <si>
-    <t>Ronald Koeman</t>
-  </si>
-  <si>
-    <t>Niko Kovač</t>
-  </si>
-  <si>
-    <t>Gian Piero Gasperini</t>
-  </si>
-  <si>
-    <t>Nuno Espírito Santo</t>
-  </si>
-  <si>
-    <t>Mikel Arteta</t>
-  </si>
-  <si>
-    <t>Patrick Vieira</t>
-  </si>
-  <si>
-    <t>Xavi Hernandez</t>
-  </si>
-  <si>
-    <t>Ralf Rangnick</t>
-  </si>
-  <si>
-    <t>Graham Potter</t>
-  </si>
-  <si>
-    <t>David Moyes</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="150">
+  <si>
+    <t>Pep</t>
+  </si>
+  <si>
+    <t>Guardiola</t>
+  </si>
+  <si>
+    <t>Jürgen</t>
+  </si>
+  <si>
+    <t>Klopp</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t>Tuchel</t>
+  </si>
+  <si>
+    <t>Carlo</t>
+  </si>
+  <si>
+    <t>Ancelotti</t>
+  </si>
+  <si>
+    <t>Diego</t>
+  </si>
+  <si>
+    <t>Simeone</t>
+  </si>
+  <si>
+    <t>Zinedine</t>
+  </si>
+  <si>
+    <t>Zidane</t>
+  </si>
+  <si>
+    <t>Antonio</t>
+  </si>
+  <si>
+    <t>Conte</t>
+  </si>
+  <si>
+    <t>Massimiliano</t>
+  </si>
+  <si>
+    <t>Allegri</t>
+  </si>
+  <si>
+    <t>Mauricio</t>
+  </si>
+  <si>
+    <t>Pochettino</t>
+  </si>
+  <si>
+    <t>Julen</t>
+  </si>
+  <si>
+    <t>Lopetegui</t>
+  </si>
+  <si>
+    <t>Simone</t>
+  </si>
+  <si>
+    <t>Inzaghi</t>
+  </si>
+  <si>
+    <t>Hans-Dieter</t>
+  </si>
+  <si>
+    <t>Flick</t>
+  </si>
+  <si>
+    <t>Erik</t>
+  </si>
+  <si>
+    <t>ten</t>
+  </si>
+  <si>
+    <t>Hag</t>
+  </si>
+  <si>
+    <t>Brendan</t>
+  </si>
+  <si>
+    <t>Rodgers</t>
+  </si>
+  <si>
+    <t>Rudi</t>
+  </si>
+  <si>
+    <t>Garcia</t>
+  </si>
+  <si>
+    <t>Marco</t>
+  </si>
+  <si>
+    <t>Rose</t>
+  </si>
+  <si>
+    <t>Lucien</t>
+  </si>
+  <si>
+    <t>Favre</t>
+  </si>
+  <si>
+    <t>Marcelo</t>
+  </si>
+  <si>
+    <t>Bielsa</t>
+  </si>
+  <si>
+    <t>José</t>
+  </si>
+  <si>
+    <t>Mourinho</t>
+  </si>
+  <si>
+    <t>Jesse</t>
+  </si>
+  <si>
+    <t>Marsch</t>
+  </si>
+  <si>
+    <t>Julian</t>
+  </si>
+  <si>
+    <t>Nagelsmann</t>
+  </si>
+  <si>
+    <t>Ralph</t>
+  </si>
+  <si>
+    <t>Hasenhüttl</t>
+  </si>
+  <si>
+    <t>Andrea</t>
+  </si>
+  <si>
+    <t>Pirlo</t>
+  </si>
+  <si>
+    <t>Ronald</t>
+  </si>
+  <si>
+    <t>Koeman</t>
+  </si>
+  <si>
+    <t>Niko</t>
+  </si>
+  <si>
+    <t>Kovač</t>
+  </si>
+  <si>
+    <t>Gian</t>
+  </si>
+  <si>
+    <t>Piero</t>
+  </si>
+  <si>
+    <t>Gasperini</t>
+  </si>
+  <si>
+    <t>Nuno</t>
+  </si>
+  <si>
+    <t>Espírito</t>
+  </si>
+  <si>
+    <t>Santo</t>
+  </si>
+  <si>
+    <t>Mikel</t>
+  </si>
+  <si>
+    <t>Arteta</t>
+  </si>
+  <si>
+    <t>Patrick</t>
+  </si>
+  <si>
+    <t>Vieira</t>
+  </si>
+  <si>
+    <t>Xavi</t>
+  </si>
+  <si>
+    <t>Hernandez</t>
+  </si>
+  <si>
+    <t>Ralf</t>
+  </si>
+  <si>
+    <t>Rangnick</t>
+  </si>
+  <si>
+    <t>Graham</t>
+  </si>
+  <si>
+    <t>Potter</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Moyes</t>
   </si>
   <si>
     <t>Marcelino</t>
   </si>
   <si>
-    <t>Christophe Galtier</t>
-  </si>
-  <si>
-    <t>Thierry Henry</t>
-  </si>
-  <si>
-    <t>Frank Lampard</t>
-  </si>
-  <si>
-    <t>Erik Hamrén</t>
-  </si>
-  <si>
-    <t>Roberto Mancini</t>
-  </si>
-  <si>
-    <t>Quique Setién</t>
-  </si>
-  <si>
-    <t>Roberto Martinez</t>
-  </si>
-  <si>
-    <t>Luis Enrique</t>
-  </si>
-  <si>
-    <t>Fernando Santos</t>
-  </si>
-  <si>
-    <t>Gareth Southgate</t>
-  </si>
-  <si>
-    <t>Didier Deschamps</t>
+    <t>Christophe</t>
+  </si>
+  <si>
+    <t>Galtier</t>
+  </si>
+  <si>
+    <t>Thierry</t>
+  </si>
+  <si>
+    <t>Henry</t>
+  </si>
+  <si>
+    <t>Frank</t>
+  </si>
+  <si>
+    <t>Lampard</t>
+  </si>
+  <si>
+    <t>Hamrén</t>
+  </si>
+  <si>
+    <t>Roberto</t>
+  </si>
+  <si>
+    <t>Mancini</t>
+  </si>
+  <si>
+    <t>Quique</t>
+  </si>
+  <si>
+    <t>Setién</t>
+  </si>
+  <si>
+    <t>Martinez</t>
+  </si>
+  <si>
+    <t>Luis</t>
+  </si>
+  <si>
+    <t>Enrique</t>
+  </si>
+  <si>
+    <t>Fernando</t>
+  </si>
+  <si>
+    <t>Santos</t>
+  </si>
+  <si>
+    <t>Gareth</t>
+  </si>
+  <si>
+    <t>Southgate</t>
+  </si>
+  <si>
+    <t>Didier</t>
+  </si>
+  <si>
+    <t>Deschamps</t>
   </si>
   <si>
     <t>Tite</t>
   </si>
   <si>
-    <t>Joachim Löw</t>
-  </si>
-  <si>
-    <t>Mancini</t>
-  </si>
-  <si>
-    <t>Stanislav Cherchesov</t>
-  </si>
-  <si>
-    <t>Óscar Tabárez</t>
-  </si>
-  <si>
-    <t>Carlos Queiroz</t>
-  </si>
-  <si>
-    <t>Vladimir Petković</t>
-  </si>
-  <si>
-    <t>Paulo Sousa</t>
-  </si>
-  <si>
-    <t>Senol Gunes</t>
-  </si>
-  <si>
-    <t>Vahid Halilhodžić</t>
-  </si>
-  <si>
-    <t>Hervé Renard</t>
-  </si>
-  <si>
-    <t>Bert van Marwijk</t>
-  </si>
-  <si>
-    <t>Sébastien Migné</t>
-  </si>
-  <si>
-    <t>Héctor Cúper</t>
-  </si>
-  <si>
-    <t>Felix Sanchez</t>
-  </si>
-  <si>
-    <t>Hwang Sun-hong</t>
-  </si>
-  <si>
-    <t>Milutin Sredojević</t>
-  </si>
-  <si>
-    <t>Molefi Ntseki</t>
-  </si>
-  <si>
-    <t>Radhi Shenaishil</t>
-  </si>
-  <si>
-    <t>Janne Andersson</t>
-  </si>
-  <si>
-    <t>Shin Tae-yong</t>
-  </si>
-  <si>
-    <t>Stephen Constantine</t>
-  </si>
-  <si>
-    <t>Djamel Belmadi</t>
-  </si>
-  <si>
-    <t>Erwin Koeman</t>
-  </si>
-  <si>
-    <t>Felix Magath</t>
-  </si>
-  <si>
-    <t>Bernd Stange</t>
-  </si>
-  <si>
-    <t>Mehdi Mahdavikia</t>
-  </si>
-  <si>
-    <t>Mladen Krstajić</t>
-  </si>
-  <si>
-    <t>Milovan Rajevac</t>
-  </si>
-  <si>
-    <t>Ivan Hašek</t>
-  </si>
-  <si>
-    <t>Ricardo Gareca</t>
-  </si>
-  <si>
-    <t>Luis Fernando Suárez</t>
+    <t>Joachim</t>
+  </si>
+  <si>
+    <t>Löw</t>
+  </si>
+  <si>
+    <t>Stanislav</t>
+  </si>
+  <si>
+    <t>Cherchesov</t>
+  </si>
+  <si>
+    <t>Óscar</t>
+  </si>
+  <si>
+    <t>Tabárez</t>
+  </si>
+  <si>
+    <t>Carlos</t>
+  </si>
+  <si>
+    <t>Queiroz</t>
+  </si>
+  <si>
+    <t>Vladimir</t>
+  </si>
+  <si>
+    <t>Petković</t>
+  </si>
+  <si>
+    <t>Paulo</t>
+  </si>
+  <si>
+    <t>Sousa</t>
+  </si>
+  <si>
+    <t>Senol</t>
+  </si>
+  <si>
+    <t>Gunes</t>
+  </si>
+  <si>
+    <t>Vahid</t>
+  </si>
+  <si>
+    <t>Halilhodžić</t>
+  </si>
+  <si>
+    <t>Hervé</t>
+  </si>
+  <si>
+    <t>Renard</t>
+  </si>
+  <si>
+    <t>Bert</t>
+  </si>
+  <si>
+    <t>van</t>
+  </si>
+  <si>
+    <t>Marwijk</t>
+  </si>
+  <si>
+    <t>Sébastien</t>
+  </si>
+  <si>
+    <t>Migné</t>
+  </si>
+  <si>
+    <t>Héctor</t>
+  </si>
+  <si>
+    <t>Cúper</t>
+  </si>
+  <si>
+    <t>Felix</t>
+  </si>
+  <si>
+    <t>Sanchez</t>
+  </si>
+  <si>
+    <t>Hwang</t>
+  </si>
+  <si>
+    <t>Sun-hong</t>
+  </si>
+  <si>
+    <t>Milutin</t>
+  </si>
+  <si>
+    <t>Sredojević</t>
+  </si>
+  <si>
+    <t>Molefi</t>
+  </si>
+  <si>
+    <t>Ntseki</t>
+  </si>
+  <si>
+    <t>Radhi</t>
+  </si>
+  <si>
+    <t>Shenaishil</t>
+  </si>
+  <si>
+    <t>Janne</t>
+  </si>
+  <si>
+    <t>Andersson</t>
+  </si>
+  <si>
+    <t>Shin</t>
+  </si>
+  <si>
+    <t>Tae-yong</t>
+  </si>
+  <si>
+    <t>Stephen</t>
+  </si>
+  <si>
+    <t>Constantine</t>
+  </si>
+  <si>
+    <t>Djamel</t>
+  </si>
+  <si>
+    <t>Belmadi</t>
+  </si>
+  <si>
+    <t>Erwin</t>
+  </si>
+  <si>
+    <t>Magath</t>
+  </si>
+  <si>
+    <t>Bernd</t>
+  </si>
+  <si>
+    <t>Stange</t>
+  </si>
+  <si>
+    <t>Mehdi</t>
+  </si>
+  <si>
+    <t>Mahdavikia</t>
+  </si>
+  <si>
+    <t>Mladen</t>
+  </si>
+  <si>
+    <t>Krstajić</t>
+  </si>
+  <si>
+    <t>Milovan</t>
+  </si>
+  <si>
+    <t>Rajevac</t>
+  </si>
+  <si>
+    <t>Ivan</t>
+  </si>
+  <si>
+    <t>Hašek</t>
+  </si>
+  <si>
+    <t>Ricardo</t>
+  </si>
+  <si>
+    <t>Gareca</t>
+  </si>
+  <si>
+    <t>Suárez</t>
   </si>
   <si>
     <t>Coach</t>
@@ -269,32 +480,25 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -302,21 +506,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -339,44 +558,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -403,32 +622,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -455,24 +656,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -484,182 +667,180 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:schemeClr val="phClr"/>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CAFD8F2-5E6F-4BF3-8399-3FBD8289A433}">
-  <dimension ref="A1:A81"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A163"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="33" customWidth="1"/>
-    <col min="2" max="2" width="56.88671875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>77</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
@@ -899,170 +1080,580 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>76</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>